--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Robo1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H2">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I2">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J2">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N2">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P2">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q2">
-        <v>0.021661959944</v>
+        <v>0.061000365426</v>
       </c>
       <c r="R2">
-        <v>0.194957639496</v>
+        <v>0.549003288834</v>
       </c>
       <c r="S2">
-        <v>0.0001159738335738932</v>
+        <v>0.0002962492686979956</v>
       </c>
       <c r="T2">
-        <v>0.0001159738335738932</v>
+        <v>0.0002962492686979955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H3">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I3">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J3">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>22.077736</v>
       </c>
       <c r="N3">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P3">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q3">
-        <v>3.176897899456</v>
+        <v>3.886167246191999</v>
       </c>
       <c r="R3">
-        <v>28.592081095104</v>
+        <v>34.97550521572799</v>
       </c>
       <c r="S3">
-        <v>0.017008480729594</v>
+        <v>0.01887323455658806</v>
       </c>
       <c r="T3">
-        <v>0.017008480729594</v>
+        <v>0.01887323455658806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H4">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I4">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J4">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N4">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P4">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q4">
-        <v>2.042365524154667</v>
+        <v>2.83209159387</v>
       </c>
       <c r="R4">
-        <v>18.381289717392</v>
+        <v>25.48882434483</v>
       </c>
       <c r="S4">
-        <v>0.01093441960042849</v>
+        <v>0.01375409897482551</v>
       </c>
       <c r="T4">
-        <v>0.0109344196004285</v>
+        <v>0.01375409897482551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H5">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I5">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J5">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N5">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O5">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P5">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q5">
-        <v>0.00228578796</v>
+        <v>0.001458694314</v>
       </c>
       <c r="R5">
-        <v>0.02057209164</v>
+        <v>0.013128248826</v>
       </c>
       <c r="S5">
-        <v>1.223765500183536E-05</v>
+        <v>7.084172705500478E-06</v>
       </c>
       <c r="T5">
-        <v>1.223765500183537E-05</v>
+        <v>7.084172705500478E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N6">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P6">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q6">
-        <v>0.6438966008656667</v>
+        <v>1.482287994458556</v>
       </c>
       <c r="R6">
-        <v>5.795069407791001</v>
+        <v>13.340591950127</v>
       </c>
       <c r="S6">
-        <v>0.003447294585560996</v>
+        <v>0.007198755799108671</v>
       </c>
       <c r="T6">
-        <v>0.003447294585560996</v>
+        <v>0.00719875579910867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>22.077736</v>
       </c>
       <c r="N7">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P7">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q7">
-        <v>94.43253353090935</v>
+        <v>94.43253353090932</v>
       </c>
       <c r="R7">
-        <v>849.8928017781841</v>
+        <v>849.8928017781839</v>
       </c>
       <c r="S7">
-        <v>0.5055730393734852</v>
+        <v>0.4586131378797755</v>
       </c>
       <c r="T7">
-        <v>0.5055730393734852</v>
+        <v>0.4586131378797755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.831823</v>
       </c>
       <c r="I8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N8">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P8">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q8">
-        <v>60.7088288468869</v>
+        <v>68.81885607542945</v>
       </c>
       <c r="R8">
-        <v>546.3794596219821</v>
+        <v>619.369704678865</v>
       </c>
       <c r="S8">
-        <v>0.3250230187552797</v>
+        <v>0.3342198959399817</v>
       </c>
       <c r="T8">
-        <v>0.3250230187552797</v>
+        <v>0.3342198959399817</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.831823</v>
       </c>
       <c r="I9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N9">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O9">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P9">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q9">
-        <v>0.067944502785</v>
+        <v>0.03544577240033334</v>
       </c>
       <c r="R9">
-        <v>0.6115005250650001</v>
+        <v>0.319011951603</v>
       </c>
       <c r="S9">
-        <v>0.0003637613807162026</v>
+        <v>0.0001721429712543759</v>
       </c>
       <c r="T9">
-        <v>0.0003637613807162026</v>
+        <v>0.0001721429712543759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H10">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.150539</v>
+        <v>0.3465496666666667</v>
       </c>
       <c r="N10">
-        <v>0.451617</v>
+        <v>1.039649</v>
       </c>
       <c r="O10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="P10">
-        <v>0.004131430002607021</v>
+        <v>0.008996151488293185</v>
       </c>
       <c r="Q10">
-        <v>0.1061230200263333</v>
+        <v>0.3090994303886667</v>
       </c>
       <c r="R10">
-        <v>0.955107180237</v>
+        <v>2.781894873498</v>
       </c>
       <c r="S10">
-        <v>0.0005681615834721313</v>
+        <v>0.001501146420486519</v>
       </c>
       <c r="T10">
-        <v>0.0005681615834721314</v>
+        <v>0.001501146420486519</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H11">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>22.077736</v>
       </c>
       <c r="N11">
-        <v>66.233208</v>
+        <v>66.23320799999999</v>
       </c>
       <c r="O11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="P11">
-        <v>0.6059069138232426</v>
+        <v>0.5731203249593199</v>
       </c>
       <c r="Q11">
-        <v>15.56378094489867</v>
+        <v>19.691883381424</v>
       </c>
       <c r="R11">
-        <v>140.074028504088</v>
+        <v>177.226950432816</v>
       </c>
       <c r="S11">
-        <v>0.08332539372016338</v>
+        <v>0.09563395252295633</v>
       </c>
       <c r="T11">
-        <v>0.0833253937201634</v>
+        <v>0.09563395252295633</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H12">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.19334466666667</v>
+        <v>16.08941833333333</v>
       </c>
       <c r="N12">
-        <v>42.580034</v>
+        <v>48.268255</v>
       </c>
       <c r="O12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="P12">
-        <v>0.3895257042574284</v>
+        <v>0.4176683996767803</v>
       </c>
       <c r="Q12">
-        <v>10.00565036503044</v>
+        <v>14.35069925172333</v>
       </c>
       <c r="R12">
-        <v>90.050853285274</v>
+        <v>129.15629326551</v>
       </c>
       <c r="S12">
-        <v>0.05356826590172023</v>
+        <v>0.06969440476197303</v>
       </c>
       <c r="T12">
-        <v>0.05356826590172024</v>
+        <v>0.06969440476197304</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H13">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.015885</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N13">
-        <v>0.047655</v>
+        <v>0.024861</v>
       </c>
       <c r="O13">
-        <v>0.0004359519167219957</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="P13">
-        <v>0.0004359519167219958</v>
+        <v>0.0002151238756065334</v>
       </c>
       <c r="Q13">
-        <v>0.011198188995</v>
+        <v>0.007391457058000001</v>
       </c>
       <c r="R13">
-        <v>0.100783700955</v>
+        <v>0.06652311352200001</v>
       </c>
       <c r="S13">
-        <v>5.99528810039578E-05</v>
+        <v>3.589673164665703E-05</v>
       </c>
       <c r="T13">
-        <v>5.995288100395782E-05</v>
+        <v>3.589673164665703E-05</v>
       </c>
     </row>
   </sheetData>
